--- a/2 Projeto/SieveofErastosthenes/SieveofErastosthenes/excel files ready/ParallelSharedMemoryOpenMP.xlsx
+++ b/2 Projeto/SieveofErastosthenes/SieveofErastosthenes/excel files ready/ParallelSharedMemoryOpenMP.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="ParallelSharedMemoryOpenMP" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="171027" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
@@ -2697,8 +2697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
